--- a/Design/Prototypes/InventoryList.xlsx
+++ b/Design/Prototypes/InventoryList.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\breather\Design\Prototypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EFECE1-296F-744F-A1B2-CCD894BD993B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -736,29 +745,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="101.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1"/>
-    <col min="6" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="1023" width="8.7109375" style="1" customWidth="1"/>
-    <col min="1024" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.59375" style="1"/>
+    <col min="3" max="4" width="15.91015625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59375" style="1"/>
+    <col min="6" max="7" width="8.76171875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.67578125" style="1" customWidth="1"/>
+    <col min="9" max="1023" width="8.76171875" style="1" customWidth="1"/>
+    <col min="1024" max="1025" width="8.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,7 +793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,7 +820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -838,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -865,7 +874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -892,7 +901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -903,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -919,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -930,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -946,7 +955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -957,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -973,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -984,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -1000,7 +1009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -1027,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -1054,7 +1063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -1081,7 +1090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1101,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -1108,7 +1117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -1135,7 +1144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -1162,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -1189,7 +1198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
@@ -1216,7 +1225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4">
         <v>12</v>
@@ -1243,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4">
         <v>8</v>
@@ -1270,7 +1279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4">
         <v>8</v>
@@ -1297,7 +1306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -1308,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4">
         <v>4</v>
@@ -1324,7 +1333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4">
         <v>4</v>
@@ -1351,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4">
         <v>4</v>
@@ -1378,7 +1387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -1405,7 +1414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
@@ -1432,7 +1441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -1459,7 +1468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -1486,7 +1495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -1497,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -1513,7 +1522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>44</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -1540,7 +1549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
@@ -1551,7 +1560,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -1567,7 +1576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1594,7 +1603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -1605,7 +1614,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -1621,7 +1630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
@@ -1648,7 +1657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
@@ -1675,7 +1684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -1686,7 +1695,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
@@ -1702,7 +1711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
@@ -1729,7 +1738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -1740,7 +1749,7 @@
         <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1">
         <v>10</v>
@@ -1756,7 +1765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -1783,7 +1792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -1891,7 +1900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -1918,7 +1927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
@@ -1999,7 +2008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -2053,7 +2062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2080,7 +2089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>87</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>86</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>88</v>
       </c>
@@ -2377,7 +2386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>89</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>90</v>
       </c>
@@ -2431,7 +2440,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>91</v>
       </c>
@@ -2458,7 +2467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>92</v>
       </c>
